--- a/Entregável - Tabela de Comparação.xlsx
+++ b/Entregável - Tabela de Comparação.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5121,06</t>
+          <t>5.121,06</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8963,80</t>
+          <t>8.963,80</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5615,29</t>
+          <t>5.615,29</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3490,12</t>
+          <t>3.490,12</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2555,91</t>
+          <t>2.555,91</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3541,67</t>
+          <t>3.541,67</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10367,64</t>
+          <t>10.367,64</t>
         </is>
       </c>
     </row>
